--- a/3.results/model_selection_V1/labbe_2_covariates_blocks.xlsx
+++ b/3.results/model_selection_V1/labbe_2_covariates_blocks.xlsx
@@ -1,255 +1,262 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\model_selection_V1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578B7A4C-2060-4941-9138-207CA6ACB648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="static_covs" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="SST_covs" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="dynamic_covs" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="static_covs" sheetId="1" r:id="rId1"/>
+    <sheet name="SST_covs" sheetId="2" r:id="rId2"/>
+    <sheet name="dynamic_covs" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
-  <si>
-    <t xml:space="preserve">model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rhat_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d1_gr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pvalue_d1_gr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_d1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waic_tot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_d1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV_tot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_dist_to_shore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_sd_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_dist_to_shore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_sd_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dist_to_shore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dist_to_shore + bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dist_to_shore + mean_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bathymetry + mean_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dist_to_shore + sd_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bathymetry + sd_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_SSH + sd_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dist_to_shore + bathymetry + mean_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dist_to_shore + bathymetry + sd_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dist_to_shore + mean_SSH + sd_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bathymetry + mean_SSH + sd_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dist_to_shore + bathymetry + mean_SSH + sd_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_autumn_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_spring_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_winter_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_sd_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_autumn_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_spring_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_winter_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_sd_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_winter_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_spring_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_autumn_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_winter_SST + mean_spring_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_winter_SST + mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_spring_SST + mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_winter_SST + mean_autumn_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_spring_SST + mean_autumn_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_summer_SST + mean_autumn_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_winter_SST + mean_spring_SST + mean_autumn_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_winter_SST + mean_summer_SST + mean_autumn_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_spring_SST + mean_summer_SST + mean_autumn_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_winter_SST + mean_spring_SST + mean_summer_SST + mean_autumn_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_SST + sd_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_CHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_sd_SAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_sd_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_CHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_sd_SAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_sd_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_CHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_SAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_CHL + sd_SAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_CHL + sd_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_SAL + sd_VEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_CHL + sd_SAL + sd_VEL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>rhat_max</t>
+  </si>
+  <si>
+    <t>ESS_min</t>
+  </si>
+  <si>
+    <t>pvalue_d1_gr1</t>
+  </si>
+  <si>
+    <t>pvalue_d1_gr2</t>
+  </si>
+  <si>
+    <t>waic_d1</t>
+  </si>
+  <si>
+    <t>waic_tot</t>
+  </si>
+  <si>
+    <t>CV_d1</t>
+  </si>
+  <si>
+    <t>CV_tot</t>
+  </si>
+  <si>
+    <t>beta_bathymetry</t>
+  </si>
+  <si>
+    <t>beta_dist_to_shore</t>
+  </si>
+  <si>
+    <t>beta_mean_SSH</t>
+  </si>
+  <si>
+    <t>beta_sd_SSH</t>
+  </si>
+  <si>
+    <t>sd_beta_bathymetry</t>
+  </si>
+  <si>
+    <t>sd_beta_dist_to_shore</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_SSH</t>
+  </si>
+  <si>
+    <t>sd_beta_sd_SSH</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>dist_to_shore</t>
+  </si>
+  <si>
+    <t>bathymetry</t>
+  </si>
+  <si>
+    <t>mean_SSH</t>
+  </si>
+  <si>
+    <t>sd_SSH</t>
+  </si>
+  <si>
+    <t>dist_to_shore + bathymetry</t>
+  </si>
+  <si>
+    <t>dist_to_shore + mean_SSH</t>
+  </si>
+  <si>
+    <t>bathymetry + mean_SSH</t>
+  </si>
+  <si>
+    <t>dist_to_shore + sd_SSH</t>
+  </si>
+  <si>
+    <t>bathymetry + sd_SSH</t>
+  </si>
+  <si>
+    <t>mean_SSH + sd_SSH</t>
+  </si>
+  <si>
+    <t>dist_to_shore + bathymetry + mean_SSH</t>
+  </si>
+  <si>
+    <t>dist_to_shore + bathymetry + sd_SSH</t>
+  </si>
+  <si>
+    <t>dist_to_shore + mean_SSH + sd_SSH</t>
+  </si>
+  <si>
+    <t>bathymetry + mean_SSH + sd_SSH</t>
+  </si>
+  <si>
+    <t>dist_to_shore + bathymetry + mean_SSH + sd_SSH</t>
+  </si>
+  <si>
+    <t>beta_mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>beta_mean_spring_SST</t>
+  </si>
+  <si>
+    <t>beta_mean_SST</t>
+  </si>
+  <si>
+    <t>beta_mean_summer_SST</t>
+  </si>
+  <si>
+    <t>beta_mean_winter_SST</t>
+  </si>
+  <si>
+    <t>beta_sd_SST</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_spring_SST</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_SST</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_summer_SST</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_winter_SST</t>
+  </si>
+  <si>
+    <t>sd_beta_sd_SST</t>
+  </si>
+  <si>
+    <t>mean_winter_SST</t>
+  </si>
+  <si>
+    <t>mean_spring_SST</t>
+  </si>
+  <si>
+    <t>mean_summer_SST</t>
+  </si>
+  <si>
+    <t>mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>mean_winter_SST + mean_spring_SST</t>
+  </si>
+  <si>
+    <t>mean_winter_SST + mean_summer_SST</t>
+  </si>
+  <si>
+    <t>mean_spring_SST + mean_summer_SST</t>
+  </si>
+  <si>
+    <t>mean_winter_SST + mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>mean_spring_SST + mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>mean_summer_SST + mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>mean_winter_SST + mean_spring_SST + mean_summer_SST</t>
+  </si>
+  <si>
+    <t>mean_winter_SST + mean_spring_SST + mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>mean_winter_SST + mean_summer_SST + mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>mean_spring_SST + mean_summer_SST + mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>mean_winter_SST + mean_spring_SST + mean_summer_SST + mean_autumn_SST</t>
+  </si>
+  <si>
+    <t>mean_SST</t>
+  </si>
+  <si>
+    <t>sd_SST</t>
+  </si>
+  <si>
+    <t>mean_SST + sd_SST</t>
+  </si>
+  <si>
+    <t>beta_mean_CHL</t>
+  </si>
+  <si>
+    <t>beta_sd_SAL</t>
+  </si>
+  <si>
+    <t>beta_sd_VEL</t>
+  </si>
+  <si>
+    <t>sd_beta_mean_CHL</t>
+  </si>
+  <si>
+    <t>sd_beta_sd_SAL</t>
+  </si>
+  <si>
+    <t>sd_beta_sd_VEL</t>
+  </si>
+  <si>
+    <t>mean_CHL</t>
+  </si>
+  <si>
+    <t>sd_SAL</t>
+  </si>
+  <si>
+    <t>sd_VEL</t>
+  </si>
+  <si>
+    <t>mean_CHL + sd_SAL</t>
+  </si>
+  <si>
+    <t>mean_CHL + sd_VEL</t>
+  </si>
+  <si>
+    <t>sd_SAL + sd_VEL</t>
+  </si>
+  <si>
+    <t>mean_CHL + sd_SAL + sd_VEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -263,12 +270,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -283,16 +296,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <sz val="11"/>
@@ -308,12 +356,137 @@
     <dxf>
       <font>
         <sz val="11"/>
+        <color rgb="FF006400"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF90EE90"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFFFB6C1"/>
         <name val="Calibri"/>
-        <b/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006400"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF90EE90"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006400"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF90EE90"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFB6C1"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006400"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF90EE90"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006400"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF90EE90"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -595,14 +768,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,32 +830,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>1.005</v>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="B2" s="1">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="C2" s="1">
         <v>467.8</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="1" t="n">
+      <c r="D2" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="1">
         <v>447</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>447</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>450</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>450</v>
       </c>
       <c r="J2" s="1"/>
@@ -692,698 +867,698 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>1.031</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="B3" s="1">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="C3" s="1">
         <v>713</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="D3" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.51</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>442</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>442</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>438</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="1">
         <v>438</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="1">
         <v>0.59</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1" t="n">
+      <c r="O3" s="1">
         <v>0.25</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>1.014</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>418.3</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>0.52</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1">
         <v>449</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>449</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1">
         <v>450</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="1">
         <v>450</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="1">
         <v>-0.33</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="1">
         <v>0.77</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>1.02</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>231.5</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>0.53</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="1" t="n">
+      <c r="E5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1">
         <v>444</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>444</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1">
         <v>442</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="1">
         <v>442</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="1">
         <v>-0.8</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1" t="n">
+      <c r="P5" s="1">
         <v>0.4</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>1.005</v>
-      </c>
-      <c r="C6" s="1" t="n">
+      <c r="B6" s="1">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="C6" s="1">
         <v>510</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>0.53</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="1" t="n">
+      <c r="E6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1">
         <v>437</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>437</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1">
         <v>434</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="1">
         <v>434</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="1">
         <v>-1.2</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="n">
+      <c r="Q6" s="1">
         <v>0.44</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>1.03</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>618.6</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>0.53</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>0.51</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>440</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1">
         <v>440</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="1">
         <v>437</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="1">
         <v>437</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="1">
         <v>0.97</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="1">
         <v>0.87</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1" t="n">
+      <c r="N7" s="1">
         <v>0.67</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="O7" s="1">
         <v>0.33</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="C8" s="1" t="n">
+      <c r="B8" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C8" s="1">
         <v>481.5</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>0.54</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="1" t="n">
+      <c r="E8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="1">
         <v>444</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="1">
         <v>444</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1">
         <v>443</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="1">
         <v>443</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="1">
         <v>0.46</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="L8" s="1">
         <v>-0.33</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1" t="n">
+      <c r="O8" s="1">
         <v>0.32</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="P8" s="1">
         <v>0.5</v>
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>1.047</v>
-      </c>
-      <c r="C9" s="1" t="n">
+      <c r="B9" s="1">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="C9" s="1">
         <v>486.3</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="1" t="n">
+      <c r="D9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="1">
         <v>444</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>444</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="1">
         <v>445</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="1">
         <v>445</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="J9" s="1">
         <v>0.47</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1" t="n">
+      <c r="L9" s="1">
         <v>-0.98</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="1" t="n">
+      <c r="N9" s="1">
         <v>0.84</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="1" t="n">
+      <c r="P9" s="1">
         <v>0.44</v>
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>1.012</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>316.2</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="1" t="n">
+      <c r="D10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="1">
         <v>437</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>437</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="1">
         <v>431</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="1">
         <v>431</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1" t="n">
+      <c r="K10" s="1">
         <v>0.48</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1" t="n">
-        <v>-1.12</v>
+      <c r="M10" s="1">
+        <v>-1.1200000000000001</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1" t="n">
+      <c r="O10" s="1">
         <v>0.34</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1" t="n">
+      <c r="Q10" s="1">
         <v>0.52</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>1.021</v>
-      </c>
-      <c r="C11" s="1" t="n">
+      <c r="B11" s="1">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="C11" s="1">
         <v>353.4</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="1" t="n">
+      <c r="D11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.51</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>438</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="1">
         <v>438</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="1">
         <v>437</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="1">
         <v>437</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J11" s="1">
         <v>-0.63</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1" t="n">
+      <c r="M11" s="1">
         <v>-1.31</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="N11" s="1">
         <v>1.03</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1" t="n">
+      <c r="Q11" s="1">
         <v>0.47</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>1.006</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>383</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="1" t="n">
+      <c r="D12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="1">
         <v>435</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="1">
         <v>435</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="1">
         <v>430</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="1">
         <v>430</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1" t="n">
+      <c r="L12" s="1">
         <v>-0.79</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="M12" s="1">
         <v>-1.22</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1" t="n">
+      <c r="P12" s="1">
         <v>0.46</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="Q12" s="1">
         <v>0.48</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>1.021</v>
-      </c>
-      <c r="C13" s="1" t="n">
+      <c r="B13" s="1">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="C13" s="1">
         <v>523</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>0.51</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>0.51</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="1">
         <v>441</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="1">
         <v>441</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="1">
         <v>441</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="1">
         <v>441</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="J13" s="1">
         <v>1.08</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="K13" s="1">
         <v>0.73</v>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="L13" s="1">
         <v>-0.42</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="1" t="n">
+      <c r="N13" s="1">
         <v>0.74</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="O13" s="1">
         <v>0.4</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="P13" s="1">
         <v>0.49</v>
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>1.008</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>354.4</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="1">
         <v>0.51</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="1" t="n">
+      <c r="E14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="1">
         <v>438</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="1">
         <v>438</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="1">
         <v>434</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="1">
         <v>434</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="J14" s="1">
         <v>0.41</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="K14" s="1">
         <v>0.59</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1" t="n">
+      <c r="M14" s="1">
         <v>-1.04</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="N14" s="1">
         <v>1.03</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="O14" s="1">
         <v>0.4</v>
       </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="n">
+      <c r="Q14" s="1">
         <v>0.51</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>1.035</v>
-      </c>
-      <c r="C15" s="1" t="n">
+      <c r="B15" s="1">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="C15" s="1">
         <v>364.6</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>0.47</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>0.51</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="1">
         <v>437</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="1">
         <v>437</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="1">
         <v>433</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="1">
         <v>433</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1" t="n">
+      <c r="K15" s="1">
         <v>0.2</v>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="L15" s="1">
         <v>-0.68</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="M15" s="1">
         <v>-1.23</v>
       </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="1" t="n">
+      <c r="O15" s="1">
         <v>0.42</v>
       </c>
-      <c r="P15" s="1" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Q15" s="1" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="P15" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>1.025</v>
-      </c>
-      <c r="C16" s="1" t="n">
+      <c r="B16" s="1">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="C16" s="1">
         <v>298.7</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="1">
         <v>0.49</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>0.49</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="1">
         <v>436</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="1">
         <v>436</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="1">
         <v>433</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="1">
         <v>433</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="J16" s="1">
         <v>-0.04</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="1" t="n">
+      <c r="L16" s="1">
         <v>-0.87</v>
       </c>
-      <c r="M16" s="1" t="n">
+      <c r="M16" s="1">
         <v>-1.26</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="N16" s="1">
         <v>1.07</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="1" t="n">
+      <c r="P16" s="1">
         <v>0.49</v>
       </c>
-      <c r="Q16" s="1" t="n">
+      <c r="Q16" s="1">
         <v>0.51</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>1.009</v>
-      </c>
-      <c r="C17" s="1" t="n">
+      <c r="B17" s="1">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="C17" s="1">
         <v>255.2</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="1">
         <v>0.47</v>
       </c>
-      <c r="E17" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="1" t="n">
+      <c r="E17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="1">
         <v>438</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="1">
         <v>438</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="1">
         <v>434</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="1">
         <v>434</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="J17" s="1">
         <v>0.15</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="K17" s="1">
         <v>0.24</v>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="L17" s="1">
         <v>-0.76</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="M17" s="1">
         <v>-1.26</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="N17" s="1">
         <v>1.25</v>
       </c>
-      <c r="O17" s="1" t="n">
+      <c r="O17" s="1">
         <v>0.52</v>
       </c>
-      <c r="P17" s="1" t="n">
+      <c r="P17" s="1">
         <v>0.59</v>
       </c>
-      <c r="Q17" s="1" t="n">
-        <v>0.56</v>
+      <c r="Q17" s="1">
+        <v>0.56000000000000005</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D17">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -1397,7 +1572,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>F2&lt;438</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1410,7 +1585,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>G2&lt;438</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1423,7 +1598,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>H2&lt;433</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1436,24 +1611,26 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>I2&lt;433</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1518,32 +1695,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>1.005</v>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="B2" s="1">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="C2" s="1">
         <v>467.8</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="1" t="n">
+      <c r="D2" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="1">
         <v>447</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>447</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>450</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>450</v>
       </c>
       <c r="J2" s="1"/>
@@ -1559,81 +1736,81 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>1.054</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>254.5</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>0.52</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="E3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1">
         <v>449</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>449</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>453</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="1">
         <v>453</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1" t="n">
-        <v>-0.14</v>
+      <c r="N3" s="1">
+        <v>-0.14000000000000001</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="1" t="n">
+      <c r="T3" s="1">
         <v>0.32</v>
       </c>
       <c r="U3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>1.718</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>100.9</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>0.44</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1">
         <v>447</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>447</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1">
         <v>448</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="1">
         <v>448</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="1">
         <v>-0.84</v>
       </c>
       <c r="L4" s="1"/>
@@ -1641,7 +1818,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="1">
         <v>0.79</v>
       </c>
       <c r="R4" s="1"/>
@@ -1649,38 +1826,38 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>1.005</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="B5" s="1">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="C5" s="1">
         <v>236.2</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>0.44</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="1" t="n">
+      <c r="E5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1">
         <v>439</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>439</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1">
         <v>447</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="1">
         <v>447</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1" t="n">
+      <c r="M5" s="1">
         <v>-1.39</v>
       </c>
       <c r="N5" s="1"/>
@@ -1688,49 +1865,49 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1" t="n">
+      <c r="S5" s="1">
         <v>0.76</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>1.036</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>165</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>0.52</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>0.51</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>447</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>447</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1">
         <v>453</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="1">
         <v>453</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <v>-0.55</v>
+      <c r="J6" s="1">
+        <v>-0.55000000000000004</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1" t="n">
+      <c r="P6" s="1">
         <v>0.59</v>
       </c>
       <c r="Q6" s="1"/>
@@ -1739,244 +1916,244 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>1.336</v>
-      </c>
-      <c r="C7" s="1" t="n">
+      <c r="B7" s="1">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="C7" s="1">
         <v>84.8</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>0.34</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="1" t="n">
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="1">
         <v>448</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1">
         <v>448</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="1">
         <v>452</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="1">
         <v>452</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="1">
         <v>-1.42</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1" t="n">
+      <c r="N7" s="1">
         <v>-0.43</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="n">
+      <c r="Q7" s="1">
         <v>1.03</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1" t="n">
+      <c r="T7" s="1">
         <v>0.63</v>
       </c>
       <c r="U7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>1.022</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>236.9</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>0.44</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="1" t="n">
+      <c r="E8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="1">
         <v>440</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="1">
         <v>440</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1">
         <v>445</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="1">
         <v>445</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="1">
         <v>-1.58</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="N8" s="1">
         <v>0.38</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1" t="n">
+      <c r="S8" s="1">
         <v>0.71</v>
       </c>
-      <c r="T8" s="1" t="n">
+      <c r="T8" s="1">
         <v>0.37</v>
       </c>
       <c r="U8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>1.007</v>
-      </c>
-      <c r="C9" s="1" t="n">
+      <c r="B9" s="1">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="C9" s="1">
         <v>194.4</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>0.38</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>0.51</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="1">
         <v>441</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>441</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="1">
         <v>449</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="1">
         <v>449</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1" t="n">
+      <c r="K9" s="1">
         <v>-0.09</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1" t="n">
+      <c r="M9" s="1">
         <v>-1.63</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1" t="n">
+      <c r="Q9" s="1">
         <v>0.61</v>
       </c>
       <c r="R9" s="1"/>
-      <c r="S9" s="1" t="n">
+      <c r="S9" s="1">
         <v>0.92</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>1.004</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>731.8</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>0.52</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>0.49</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="1">
         <v>437</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>437</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="1">
         <v>441</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="1">
         <v>441</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="J10" s="1">
         <v>-2.39</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1" t="n">
+      <c r="N10" s="1">
         <v>1.87</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="1" t="n">
+      <c r="P10" s="1">
         <v>0.87</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1" t="n">
+      <c r="T10" s="1">
         <v>0.73</v>
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>1.269</v>
-      </c>
-      <c r="C11" s="1" t="n">
+      <c r="B11" s="1">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="C11" s="1">
         <v>74.8</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>0.38</v>
       </c>
-      <c r="E11" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="1" t="n">
+      <c r="E11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="1">
         <v>447</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="1">
         <v>447</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="1">
         <v>452</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="1">
         <v>452</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J11" s="1">
         <v>-0.7</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="K11" s="1">
         <v>-1.17</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1" t="n">
+      <c r="P11" s="1">
         <v>0.69</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="Q11" s="1">
         <v>1.03</v>
       </c>
       <c r="R11" s="1"/>
@@ -1984,355 +2161,355 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>1.296</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>191.5</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="1">
         <v>0.42</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>0.51</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="1">
         <v>442</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="1">
         <v>442</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="1">
         <v>447</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="1">
         <v>447</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="J12" s="1">
         <v>0</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1" t="n">
+      <c r="M12" s="1">
         <v>-1.59</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1" t="n">
+      <c r="P12" s="1">
         <v>0.53</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1" t="n">
+      <c r="S12" s="1">
         <v>0.84</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>1.037</v>
-      </c>
-      <c r="C13" s="1" t="n">
+      <c r="B13" s="1">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="C13" s="1">
         <v>166.5</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>0.4</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="1" t="n">
+      <c r="E13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="1">
         <v>444</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="1">
         <v>444</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="1">
         <v>447</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="1">
         <v>447</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1" t="n">
+      <c r="K13" s="1">
         <v>-0.24</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1" t="n">
+      <c r="M13" s="1">
         <v>-1.59</v>
       </c>
-      <c r="N13" s="1" t="n">
+      <c r="N13" s="1">
         <v>0.31</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1" t="n">
+      <c r="Q13" s="1">
         <v>0.7</v>
       </c>
       <c r="R13" s="1"/>
-      <c r="S13" s="1" t="n">
+      <c r="S13" s="1">
         <v>0.84</v>
       </c>
-      <c r="T13" s="1" t="n">
+      <c r="T13" s="1">
         <v>0.5</v>
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>1.07</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>204.9</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="1">
         <v>0.44</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="1" t="n">
+      <c r="E14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="1">
         <v>440</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="1">
         <v>440</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="1">
         <v>444</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="1">
         <v>444</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="J14" s="1">
         <v>-2.19</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="K14" s="1">
         <v>-0.39</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1" t="n">
+      <c r="N14" s="1">
         <v>1.78</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="1" t="n">
+      <c r="P14" s="1">
         <v>0.96</v>
       </c>
-      <c r="Q14" s="1" t="n">
-        <v>0.58</v>
+      <c r="Q14" s="1">
+        <v>0.57999999999999996</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="1" t="n">
+      <c r="T14" s="1">
         <v>0.88</v>
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>1.006</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>380.8</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>0.45</v>
       </c>
-      <c r="E15" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="1" t="n">
+      <c r="E15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="1">
         <v>436</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="1">
         <v>436</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="1">
         <v>442</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="1">
         <v>442</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="J15" s="1">
         <v>-1.66</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1" t="n">
+      <c r="M15" s="1">
         <v>-1.17</v>
       </c>
-      <c r="N15" s="1" t="n">
+      <c r="N15" s="1">
         <v>1.62</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="P15" s="1" t="n">
+      <c r="P15" s="1">
         <v>0.97</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1" t="n">
+      <c r="S15" s="1">
         <v>0.64</v>
       </c>
-      <c r="T15" s="1" t="n">
+      <c r="T15" s="1">
         <v>0.79</v>
       </c>
       <c r="U15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>1.088</v>
-      </c>
-      <c r="C16" s="1" t="n">
+      <c r="B16" s="1">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="C16" s="1">
         <v>152.6</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="1">
         <v>0.38</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>0.51</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="1">
         <v>443</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="1">
         <v>443</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="1">
         <v>449</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="1">
         <v>449</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="J16" s="1">
         <v>-0.15</v>
       </c>
-      <c r="K16" s="1" t="n">
-        <v>-0.07</v>
+      <c r="K16" s="1">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1" t="n">
+      <c r="M16" s="1">
         <v>-1.72</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1" t="n">
+      <c r="P16" s="1">
         <v>0.64</v>
       </c>
-      <c r="Q16" s="1" t="n">
+      <c r="Q16" s="1">
         <v>0.8</v>
       </c>
       <c r="R16" s="1"/>
-      <c r="S16" s="1" t="n">
+      <c r="S16" s="1">
         <v>1.04</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>1.2</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>186.9</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="1">
         <v>0.43</v>
       </c>
-      <c r="E17" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="1" t="n">
+      <c r="E17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="1">
         <v>438</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="1">
         <v>438</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="1">
         <v>442</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="1">
         <v>442</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="J17" s="1">
         <v>-1.91</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="K17" s="1">
         <v>0.12</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="1" t="n">
+      <c r="M17" s="1">
         <v>-1.31</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="N17" s="1">
         <v>1.7</v>
       </c>
       <c r="O17" s="1"/>
-      <c r="P17" s="1" t="n">
+      <c r="P17" s="1">
         <v>1.05</v>
       </c>
-      <c r="Q17" s="1" t="n">
+      <c r="Q17" s="1">
         <v>0.67</v>
       </c>
       <c r="R17" s="1"/>
-      <c r="S17" s="1" t="n">
+      <c r="S17" s="1">
         <v>0.79</v>
       </c>
-      <c r="T17" s="1" t="n">
+      <c r="T17" s="1">
         <v>0.86</v>
       </c>
       <c r="U17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>1.026</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>192.1</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="1">
         <v>0.52</v>
       </c>
-      <c r="E18" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="1" t="n">
+      <c r="E18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="1">
         <v>447</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="1">
         <v>447</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="1">
         <v>454</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18" s="1">
         <v>454</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1" t="n">
+      <c r="L18" s="1">
         <v>-0.5</v>
       </c>
       <c r="M18" s="1"/>
@@ -2340,39 +2517,39 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1" t="n">
+      <c r="R18" s="1">
         <v>0.49</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>1.01</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>311.7</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="1">
         <v>0.53</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>0.49</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="1">
         <v>448</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="1">
         <v>448</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="1">
         <v>450</v>
       </c>
-      <c r="I19" s="1" t="n">
+      <c r="I19" s="1">
         <v>450</v>
       </c>
       <c r="J19" s="1"/>
@@ -2380,7 +2557,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1" t="n">
+      <c r="O19" s="1">
         <v>-0.18</v>
       </c>
       <c r="P19" s="1"/>
@@ -2388,68 +2565,68 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="1" t="n">
+      <c r="U19" s="1">
         <v>0.22</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>1.016</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>453.4</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="1">
         <v>0.48</v>
       </c>
-      <c r="E20" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="1" t="n">
+      <c r="E20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="1">
         <v>438</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="1">
         <v>438</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="1">
         <v>442</v>
       </c>
-      <c r="I20" s="1" t="n">
+      <c r="I20" s="1">
         <v>442</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1" t="n">
+      <c r="L20" s="1">
         <v>-1.55</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1" t="n">
+      <c r="O20" s="1">
         <v>-1.19</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1" t="n">
+      <c r="R20" s="1">
         <v>0.62</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1" t="n">
+      <c r="U20" s="1">
         <v>0.46</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D20">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E20">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -2463,7 +2640,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>F2&lt;439</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2476,7 +2653,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>G2&lt;439</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2489,7 +2666,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>H2&lt;444</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2502,24 +2679,26 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>I2&lt;444</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2566,32 +2745,32 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>1.005</v>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="B2" s="1">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="C2" s="1">
         <v>467.8</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="1" t="n">
+      <c r="D2" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="1">
         <v>447</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>447</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>450</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>450</v>
       </c>
       <c r="J2" s="1"/>
@@ -2601,308 +2780,308 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>1.008</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>330.3</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>0.53</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>0.51</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>449</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>449</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>452</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="1">
         <v>452</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="1">
         <v>0.17</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="1">
         <v>0.27</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>1.116</v>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="B4" s="1">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="C4" s="1">
         <v>238.5</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>0.37</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1">
         <v>443</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>443</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1">
         <v>446</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="1">
         <v>446</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="1">
         <v>1.87</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1" t="n">
-        <v>1.12</v>
+      <c r="N4" s="1">
+        <v>1.1200000000000001</v>
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>1.001</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="B5" s="1">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C5" s="1">
         <v>344.9</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>0.51</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="1" t="n">
+      <c r="E5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1">
         <v>447</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>447</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1">
         <v>453</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="1">
         <v>453</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="1">
         <v>-0.37</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1" t="n">
+      <c r="O5" s="1">
         <v>0.32</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>1.022</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>206.7</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>0.35</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>0.51</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>444</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>444</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1">
         <v>446</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="1">
         <v>446</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="1">
         <v>-0.15</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="1">
         <v>2.21</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="1">
         <v>0.59</v>
       </c>
-      <c r="N6" s="1" t="n">
-        <v>1.13</v>
+      <c r="N6" s="1">
+        <v>1.1299999999999999</v>
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>1.021</v>
-      </c>
-      <c r="C7" s="1" t="n">
+      <c r="B7" s="1">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="C7" s="1">
         <v>199.9</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>0.47</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>0.51</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>450</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1">
         <v>450</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="1">
         <v>455</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="1">
         <v>455</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="1">
         <v>0.19</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1" t="n">
+      <c r="L7" s="1">
         <v>-0.42</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="M7" s="1">
         <v>0.35</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1" t="n">
+      <c r="O7" s="1">
         <v>0.44</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>1.053</v>
-      </c>
-      <c r="C8" s="1" t="n">
+      <c r="B8" s="1">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="C8" s="1">
         <v>188.7</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>0.36</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>0.51</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="1">
         <v>444</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="1">
         <v>444</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1">
         <v>449</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="1">
         <v>449</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="1">
         <v>1.95</v>
       </c>
-      <c r="L8" s="1" t="n">
-        <v>-0.56</v>
+      <c r="L8" s="1">
+        <v>-0.56000000000000005</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1" t="n">
+      <c r="N8" s="1">
         <v>1.24</v>
       </c>
-      <c r="O8" s="1" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="O8" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>1.101</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>209.6</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>0.33</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>0.51</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="1">
         <v>443</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>443</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="1">
         <v>446</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="1">
         <v>446</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="J9" s="1">
         <v>-0.51</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="K9" s="1">
         <v>2.37</v>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="L9" s="1">
         <v>-0.82</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="M9" s="1">
         <v>0.66</v>
       </c>
-      <c r="N9" s="1" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="O9" s="1" t="n">
+      <c r="N9" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="O9" s="1">
         <v>0.64</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D9">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E9">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="between">
       <formula>0.1</formula>
       <formula>0.9</formula>
     </cfRule>
@@ -2916,7 +3095,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>F2&lt;446</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2929,7 +3108,7 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>G2&lt;446</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2955,11 +3134,11 @@
         <color rgb="FFFFFFFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>I2&lt;449</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>